--- a/AutoWebsiteVerifier/WebsiteVerifyData.xlsx
+++ b/AutoWebsiteVerifier/WebsiteVerifyData.xlsx
@@ -1,37 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+  <si>
+    <t>sl_No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>WebsiteLink</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Sanjay</t>
+  </si>
+  <si>
+    <t>Manju</t>
+  </si>
+  <si>
+    <t>Guru</t>
+  </si>
+  <si>
+    <t>Testappa</t>
+  </si>
+  <si>
+    <t>Testamma</t>
+  </si>
+  <si>
+    <t>Add_Test</t>
+  </si>
+  <si>
+    <t>https://www.analyticsvidhya.com/blog/2020/04/5-popular-python-libraries-web-scraping/#:~:text=BeautifulSoup%20is%20perhaps%20the%20most%20widely%20used%20Python,documents%20to%20Unicode%20and%20outgoing%20documents%20to%20UTF-8.</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=pandas+Excel&amp;oq=pandas+Excel&amp;aqs=chrome..69i57j0i20i263i512j0i512l4j69i60l2.5566j0j7&amp;sourceid=chrome&amp;ie=UTF-8</t>
+  </si>
+  <si>
+    <t>http://localhost:8888/notebooks/AutomaticWebsiteVerifierDjango/Untitled.ipynb?kernel_name=python3</t>
+  </si>
+  <si>
+    <t>AutomaticWebsiteVerifierDjango</t>
+  </si>
+  <si>
+    <t>https://www.launchableinc.com/how-it-works?gclid=EAIaIQobChMIiKj3wOLn8gIV-KBmAh1j3AjIEAEYASAAEgKFSPD_BwE</t>
+  </si>
+  <si>
+    <t>https://mail.google.com/</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Python Library For Web Scraping | Web Scraping Tools Python</t>
+  </si>
+  <si>
+    <t>pandas Excel - Google Search</t>
+  </si>
+  <si>
+    <t>AI powered test automation | Launchable Inc.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +127,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -420,185 +449,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sl_No</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>WebsiteLink</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Content</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sanjay</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.analyticsvidhya.com/blog/2020/04/5-popular-python-libraries-web-scraping/#:~:text=BeautifulSoup%20is%20perhaps%20the%20most%20widely%20used%20Python,documents%20to%20Unicode%20and%20outgoing%20documents%20to%20UTF-8.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Python Library For Web Scraping | Web Scraping Tools Python</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Manju</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/search?q=pandas+Excel&amp;oq=pandas+Excel&amp;aqs=chrome..69i57j0i20i263i512j0i512l4j69i60l2.5566j0j7&amp;sourceid=chrome&amp;ie=UTF-8</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>pandas Excel - Google Search</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Guru</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>http://localhost:8888/notebooks/AutomaticWebsiteVerifierDjango/Untitled.ipynb?kernel_name=python3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Testappa</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>AutomaticWebsiteVerifierDjango</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Testamma</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.launchableinc.com/how-it-works?gclid=EAIaIQobChMIiKj3wOLn8gIV-KBmAh1j3AjIEAEYASAAEgKFSPD_BwE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>AI powered test automation | Launchable Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Add_Test</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://mail.google.com/</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" location=":~:text=BeautifulSoup%20is%20perhaps%20the%20most%20widely%20used%20Python,documents%20to%20Unicode%20and%20outgoing%20documents%20to%20UTF-8."/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>